--- a/spliced/struggle/2023-04-06_18-13-50/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-13-50/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0280998013913631</v>
+        <v>-0.0050396383740007</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0065668015740811</v>
+        <v>-0.0062613687478005</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2249511331319809</v>
+        <v>-0.0682641938328743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0161879286170005</v>
+        <v>0.0280998013913631</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1918116807937622</v>
+        <v>0.0065668015740811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1281289905309677</v>
+        <v>-0.2249511331319809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.661719799041748</v>
+        <v>0.0161879286170005</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.015994548797607</v>
+        <v>0.1918116807937622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2399173229932785</v>
+        <v>0.1281289905309677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.712574303150177</v>
+        <v>-0.661719799041748</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.057533264160156</v>
+        <v>-3.015994548797607</v>
       </c>
       <c r="C5" t="n">
-        <v>1.317941784858704</v>
+        <v>0.2399173229932785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0276416521519422</v>
+        <v>-0.712574303150177</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.573588848114014</v>
+        <v>-3.057533264160156</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1765400618314743</v>
+        <v>1.317941784858704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.30925053358078</v>
+        <v>-0.0276416521519422</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.087340116500854</v>
+        <v>-1.573588848114014</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5018258094787598</v>
+        <v>0.1765400618314743</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5064072608947754</v>
+        <v>-0.30925053358078</v>
       </c>
       <c r="B8" t="n">
-        <v>1.254717230796814</v>
+        <v>-1.087340116500854</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3903428912162781</v>
+        <v>0.5018258094787598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8715519905090332</v>
+        <v>0.5064072608947754</v>
       </c>
       <c r="B9" t="n">
-        <v>7.492720603942871</v>
+        <v>1.254717230796814</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2434297949075698</v>
+        <v>-0.3903428912162781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1846340149641037</v>
+        <v>0.8715519905090332</v>
       </c>
       <c r="B10" t="n">
-        <v>3.088076591491699</v>
+        <v>7.492720603942871</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3998112976551056</v>
+        <v>-0.2434297949075698</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9885326623916626</v>
+        <v>0.1846340149641037</v>
       </c>
       <c r="B11" t="n">
-        <v>0.327729195356369</v>
+        <v>3.088076591491699</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7793113589286804</v>
+        <v>-0.3998112976551056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1824959963560104</v>
+        <v>0.9885326623916626</v>
       </c>
       <c r="B12" t="n">
-        <v>1.06657075881958</v>
+        <v>0.327729195356369</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.535881519317627</v>
+        <v>0.7793113589286804</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.3689626157283783</v>
+        <v>0.1824959963560104</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3917173445224762</v>
+        <v>1.06657075881958</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0592539273202419</v>
+        <v>-0.535881519317627</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1073595657944679</v>
+        <v>-0.3689626157283783</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.686697483062744</v>
+        <v>-0.3917173445224762</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5876523852348328</v>
+        <v>0.0592539273202419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.328340083360672</v>
+        <v>0.1073595657944679</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.181830883026123</v>
+        <v>-5.686697483062744</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4459316432476043</v>
+        <v>0.5876523852348328</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5354233980178833</v>
+        <v>-0.328340083360672</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.544559240341187</v>
+        <v>-4.181830883026123</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.09666942805051799</v>
+        <v>0.4459316432476043</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1430951803922653</v>
+        <v>0.5354233980178833</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.349706768989563</v>
+        <v>-2.544559240341187</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0325285755097866</v>
+        <v>-0.09666942805051799</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1991420686244964</v>
+        <v>0.1430951803922653</v>
       </c>
       <c r="B18" t="n">
-        <v>2.337323188781738</v>
+        <v>-1.349706768989563</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0629191175103187</v>
+        <v>0.0325285755097866</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.6780604124069214</v>
+        <v>0.1991420686244964</v>
       </c>
       <c r="B19" t="n">
-        <v>4.859890937805176</v>
+        <v>2.337323188781738</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5485569834709167</v>
+        <v>-0.0629191175103187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2672535479068756</v>
+        <v>-0.6780604124069214</v>
       </c>
       <c r="B20" t="n">
-        <v>4.172514915466309</v>
+        <v>4.859890937805176</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.6389650702476501</v>
+        <v>-0.5485569834709167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.2672535479068756</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.172514915466309</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.6389650702476501</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>0.5691736936569214</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>0.9764680862426758</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>0.5934556126594543</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.4335615932941437</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1406517177820205</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.8185594081878662</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.09498954564332961</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.7519751191139221</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.1093448773026466</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.1846340149641037</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.312596678733826</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0687223374843597</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.6478226184844971</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.9091202020645142</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1838704347610473</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.1064432710409164</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.09178250283002851</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0652098655700683</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.042302418500185</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3572034537792206</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1937969923019409</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.2768746614456177</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2338086664676666</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1817324161529541</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0734565481543541</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1968513280153274</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1055269688367843</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.1507309973239898</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0175623763352632</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.08170322328805921</v>
       </c>
     </row>
   </sheetData>
